--- a/RESULTS DATA/MILD-MASTER Behavior Files/lateralization-matching.xlsx
+++ b/RESULTS DATA/MILD-MASTER Behavior Files/lateralization-matching.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\MILD-Master\RESULTS DATA\MILD-MASTER Behavior Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182CA57D-E4C1-485A-B9A2-EBCB67E5FF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DBFD30-393B-4D76-945B-07A06F282C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B42AA716-FE1B-4F4E-BA96-BCC987FDF721}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="18">
   <si>
     <t>S</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>latpilot6</t>
+  </si>
+  <si>
+    <t>lateralization_1_matching</t>
   </si>
 </sst>
 </file>
@@ -459,15 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E1DBB9-EFB6-4340-B08F-7EC031DFC000}">
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:I649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="N364" sqref="N364"/>
+    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="J433" sqref="J433"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -525,7 +532,7 @@
         <v>-28.765831476790598</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -554,7 +561,7 @@
         <v>-47.322305978575997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -583,7 +590,7 @@
         <v>-49.179052095095599</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -612,7 +619,7 @@
         <v>-13.917355876339</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -641,7 +648,7 @@
         <v>36.187322611163601</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -670,7 +677,7 @@
         <v>52.887050996429302</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -699,7 +706,7 @@
         <v>-19.487594225898</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -728,7 +735,7 @@
         <v>0.92562639240698197</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -757,7 +764,7 @@
         <v>32.473830378124298</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -786,7 +793,7 @@
         <v>4.6391186254463399</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -815,7 +822,7 @@
         <v>26.9090853602709</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -844,7 +851,7 @@
         <v>17.630848109378299</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -873,7 +880,7 @@
         <v>-13.917355876339</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -902,7 +909,7 @@
         <v>-30.6170842616046</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -931,7 +938,7 @@
         <v>26.9090853602709</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -960,7 +967,7 @@
         <v>-21.338847010712001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -989,7 +996,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1018,7 +1025,7 @@
         <v>30.6170842616046</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1047,7 +1054,7 @@
         <v>0.92562639240698197</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>8.3526108584856704</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1105,7 +1112,7 @@
         <v>47.322305978575997</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1134,7 +1141,7 @@
         <v>-47.322305978575997</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1170,7 @@
         <v>-47.322305978575997</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1192,7 +1199,7 @@
         <v>8.3526108584856704</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1221,7 +1228,7 @@
         <v>26.9090853602709</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1257,7 @@
         <v>-36.187322611163601</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1279,7 +1286,7 @@
         <v>8.3526108584856704</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1308,7 +1315,7 @@
         <v>28.765831476790598</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1337,7 +1344,7 @@
         <v>43.608813745536601</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1366,7 +1373,7 @@
         <v>12.0606097598193</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>-28.765831476790598</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1424,7 +1431,7 @@
         <v>-6.4958647419659998</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1460,7 @@
         <v>-28.765831476790598</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1489,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1511,7 +1518,7 @@
         <v>-8.3526108584856704</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1540,7 +1547,7 @@
         <v>-25.052339243751302</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +1576,7 @@
         <v>-28.765831476790598</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1598,7 +1605,7 @@
         <v>28.765831476790598</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +1634,7 @@
         <v>12.0606097598193</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1656,7 +1663,7 @@
         <v>38.044068727683303</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1692,7 @@
         <v>-21.338847010712001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1714,7 +1721,7 @@
         <v>-13.917355876339</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1743,7 +1750,7 @@
         <v>12.0606097598193</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1772,7 +1779,7 @@
         <v>26.9090853602709</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1801,7 +1808,7 @@
         <v>34.330576494643999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1830,7 +1837,7 @@
         <v>-26.909085360271</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1859,7 +1866,7 @@
         <v>-21.338847010712001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1895,7 @@
         <v>-10.2038636432996</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1917,7 +1924,7 @@
         <v>-36.187322611163601</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1946,7 +1953,7 @@
         <v>6.4958647419659998</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1975,7 +1982,7 @@
         <v>-0.92562639240699696</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2004,7 +2011,7 @@
         <v>-71.443525498214598</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2033,7 +2040,7 @@
         <v>-28.765831476790598</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2062,7 +2069,7 @@
         <v>-8.3526108584856704</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2091,7 +2098,7 @@
         <v>-54.743797112948997</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2120,7 +2127,7 @@
         <v>23.1955931272316</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2149,7 +2156,7 @@
         <v>-6.4958647419659998</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2178,7 +2185,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2207,7 +2214,7 @@
         <v>15.774101992858601</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2236,7 +2243,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2265,7 +2272,7 @@
         <v>-8.3526108584856704</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2294,7 +2301,7 @@
         <v>36.187322611163601</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2323,7 +2330,7 @@
         <v>28.765831476790598</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2352,7 +2359,7 @@
         <v>-4.6391186254463204</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2381,7 +2388,7 @@
         <v>12.0606097598193</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2410,7 +2417,7 @@
         <v>-21.338847010712001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2439,7 +2446,7 @@
         <v>17.630848109378299</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2468,7 +2475,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2497,7 +2504,7 @@
         <v>10.2038636432996</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2526,7 +2533,7 @@
         <v>-41.752067629016999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2555,7 +2562,7 @@
         <v>-10.2038636432996</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2584,7 +2591,7 @@
         <v>-34.330576494643999</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -2613,7 +2620,7 @@
         <v>-65.8787804803613</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2642,7 +2649,7 @@
         <v>-73.300271614734299</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -2671,7 +2678,7 @@
         <v>0.92562639240698197</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2700,7 +2707,7 @@
         <v>71.443525498214598</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -2729,7 +2736,7 @@
         <v>-6.4958647419659998</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -2758,7 +2765,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -2787,7 +2794,7 @@
         <v>10.2038636432996</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -2816,7 +2823,7 @@
         <v>41.752067629016899</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -2845,7 +2852,7 @@
         <v>-25.052339243751302</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2874,7 +2881,7 @@
         <v>-10.2038636432996</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -2903,7 +2910,7 @@
         <v>41.752067629016899</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -2932,7 +2939,7 @@
         <v>71.443525498214598</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -2961,7 +2968,7 @@
         <v>-6.4958647419659998</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -2990,7 +2997,7 @@
         <v>-75.157017731254001</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -3019,7 +3026,7 @@
         <v>2.7823725089266702</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -3048,7 +3055,7 @@
         <v>-0.92562639240699696</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -3077,7 +3084,7 @@
         <v>60.308542130802302</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -3106,7 +3113,7 @@
         <v>-8.3526108584856704</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -3135,7 +3142,7 @@
         <v>-4.6391186254463204</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -3164,7 +3171,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -3193,7 +3200,7 @@
         <v>-80.721762749107299</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -3222,7 +3229,7 @@
         <v>60.308542130802302</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -3251,7 +3258,7 @@
         <v>-0.92562639240699696</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -3280,7 +3287,7 @@
         <v>-65.8787804803613</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -3309,7 +3316,7 @@
         <v>-21.338847010712001</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -3338,7 +3345,7 @@
         <v>58.457289345988301</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -3367,7 +3374,7 @@
         <v>-36.187322611163601</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -3396,7 +3403,7 @@
         <v>-8.3526108584856704</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -3425,7 +3432,7 @@
         <v>-4.6391186254463204</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -3454,7 +3461,7 @@
         <v>10.2038636432996</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -3483,7 +3490,7 @@
         <v>49.179052095095599</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -3512,7 +3519,7 @@
         <v>39.900814844202998</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -3541,7 +3548,7 @@
         <v>-26.909085360271</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -3570,7 +3577,7 @@
         <v>-64.022034363841598</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -3599,7 +3606,7 @@
         <v>-19.487594225898</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -3628,7 +3635,7 @@
         <v>78.870509964293305</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -3657,7 +3664,7 @@
         <v>-8.3526108584856704</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -3686,7 +3693,7 @@
         <v>-77.013763847773603</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -3715,7 +3722,7 @@
         <v>23.1955931272316</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -3744,7 +3751,7 @@
         <v>65.8787804803613</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>17.630848109378299</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -3802,7 +3809,7 @@
         <v>-69.592272713400604</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -3831,7 +3838,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -3860,7 +3867,7 @@
         <v>-28.765831476790598</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>12</v>
       </c>
@@ -3889,7 +3896,7 @@
         <v>-45.465559862056303</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3918,7 +3925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -3947,7 +3954,7 @@
         <v>-6.4958647419659998</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -3976,7 +3983,7 @@
         <v>56.600543229468599</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -4005,7 +4012,7 @@
         <v>6.4958647419659998</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -4034,7 +4041,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -4063,7 +4070,7 @@
         <v>-39.900814844202998</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -4092,7 +4099,7 @@
         <v>65.8787804803613</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -4121,7 +4128,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -4150,7 +4157,7 @@
         <v>-82.578508865627001</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -4179,7 +4186,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -4208,7 +4215,7 @@
         <v>-2.7823725089266702</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -4237,7 +4244,7 @@
         <v>43.608813745536601</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -4266,7 +4273,7 @@
         <v>39.900814844202998</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -4295,7 +4302,7 @@
         <v>-0.92562639240699696</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -4324,7 +4331,7 @@
         <v>-21.338847010712001</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -4353,7 +4360,7 @@
         <v>88.148747215186006</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -4382,7 +4389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -4411,7 +4418,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -4440,7 +4447,7 @@
         <v>-73.300271614734299</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -4469,7 +4476,7 @@
         <v>-95.570238349559006</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -4498,7 +4505,7 @@
         <v>-39.900814844202998</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -4527,7 +4534,7 @@
         <v>0.92562639240698197</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -4556,7 +4563,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4585,7 +4592,7 @@
         <v>6.4958647419659998</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -4614,7 +4621,7 @@
         <v>2.7823725089266702</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>-36.187322611163601</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -4672,7 +4679,7 @@
         <v>-62.165288247322003</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -4701,7 +4708,7 @@
         <v>-39.900814844202998</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -4730,7 +4737,7 @@
         <v>-19.487594225898</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -4759,7 +4766,7 @@
         <v>80.721762749107299</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -4788,7 +4795,7 @@
         <v>6.4958647419659998</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -4817,7 +4824,7 @@
         <v>6.4958647419659998</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4846,7 +4853,7 @@
         <v>-54.743797112948997</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -4875,7 +4882,7 @@
         <v>-38.044068727683303</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -4904,7 +4911,7 @@
         <v>-80.721762749107299</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -4933,7 +4940,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -4962,7 +4969,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -4991,7 +4998,7 @@
         <v>-13.917355876339</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -5020,7 +5027,7 @@
         <v>41.752067629016899</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -5049,7 +5056,7 @@
         <v>-15.774101992858601</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -5078,7 +5085,7 @@
         <v>-2.7823725089266702</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -5107,7 +5114,7 @@
         <v>-47.322305978575997</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -5136,7 +5143,7 @@
         <v>71.443525498214598</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -5165,7 +5172,7 @@
         <v>21.338847010711898</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -5194,7 +5201,7 @@
         <v>73.300271614734299</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -5223,7 +5230,7 @@
         <v>-39.900814844202998</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -5252,7 +5259,7 @@
         <v>80.721762749107299</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -5281,7 +5288,7 @@
         <v>15.774101992858601</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -5310,7 +5317,7 @@
         <v>-4.6391186254463204</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -5339,7 +5346,7 @@
         <v>25.052339243751302</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -5368,7 +5375,7 @@
         <v>26.9090853602709</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -5397,7 +5404,7 @@
         <v>-49.179052095095599</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -5426,7 +5433,7 @@
         <v>-47.322305978575997</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -5455,7 +5462,7 @@
         <v>77.013763847773603</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -5484,7 +5491,7 @@
         <v>17.630848109378299</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -5513,7 +5520,7 @@
         <v>-56.600543229468599</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -5542,7 +5549,7 @@
         <v>-13.917355876339</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -5571,7 +5578,7 @@
         <v>32.473830378124298</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -5600,7 +5607,7 @@
         <v>71.443525498214598</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -5629,7 +5636,7 @@
         <v>38.044068727683303</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -5658,7 +5665,7 @@
         <v>71.443525498214598</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -5687,7 +5694,7 @@
         <v>-12.0606097598193</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>4.6391186254463399</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -5745,7 +5752,7 @@
         <v>-10.2038636432996</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -5774,7 +5781,7 @@
         <v>-73.300271614734299</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -5803,7 +5810,7 @@
         <v>8.3526108584856704</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -5832,7 +5839,7 @@
         <v>34.330576494643999</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -5861,7 +5868,7 @@
         <v>-86.292001098666304</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -5890,7 +5897,7 @@
         <v>-54.743797112948997</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -5919,7 +5926,7 @@
         <v>38.044068727683303</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -5948,7 +5955,7 @@
         <v>73.300271614734299</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -5977,7 +5984,7 @@
         <v>-75.157017731254001</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -6006,7 +6013,7 @@
         <v>60.308542130802302</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -6035,7 +6042,7 @@
         <v>8.3526108584856704</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -6064,7 +6071,7 @@
         <v>41.752067629016899</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -6093,7 +6100,7 @@
         <v>-64.022034363841598</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -6122,7 +6129,7 @@
         <v>-119.696951200903</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -6151,7 +6158,7 @@
         <v>60.308542130802302</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -6180,7 +6187,7 @@
         <v>-17.630848109378299</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -6209,7 +6216,7 @@
         <v>-0.92562639240699696</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -6238,7 +6245,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -6267,7 +6274,7 @@
         <v>8.3526108584856704</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -6296,7 +6303,7 @@
         <v>-34.330576494643999</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -6325,7 +6332,7 @@
         <v>23.1955931272316</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -6354,7 +6361,7 @@
         <v>6.4958647419659998</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -6383,7 +6390,7 @@
         <v>23.1955931272316</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -6412,7 +6419,7 @@
         <v>-12.0606097598193</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -6441,7 +6448,7 @@
         <v>25.052339243751302</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -6470,7 +6477,7 @@
         <v>30.6170842616046</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -6499,7 +6506,7 @@
         <v>60.308542130802302</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -6528,7 +6535,7 @@
         <v>-43.608813745536601</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -6557,7 +6564,7 @@
         <v>4.6391186254463399</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -6586,7 +6593,7 @@
         <v>-32.473830378124298</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -6615,7 +6622,7 @@
         <v>-78.870509964293305</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -6644,7 +6651,7 @@
         <v>32.473830378124298</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -6673,7 +6680,7 @@
         <v>-75.157017731254001</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -6702,7 +6709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -6731,7 +6738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -6760,7 +6767,7 @@
         <v>-10.2038636432996</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>14</v>
       </c>
@@ -6789,7 +6796,7 @@
         <v>54.743797112948997</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -6818,7 +6825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -6847,7 +6854,7 @@
         <v>49.179052095095599</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -6876,7 +6883,7 @@
         <v>-45.465559862056303</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -6905,7 +6912,7 @@
         <v>-32.473830378124298</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -6934,7 +6941,7 @@
         <v>0.92562639240698197</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -6963,7 +6970,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -6992,7 +6999,7 @@
         <v>-45.465559862056303</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -7021,7 +7028,7 @@
         <v>8.3526108584856704</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -7050,7 +7057,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>14</v>
       </c>
@@ -7079,7 +7086,7 @@
         <v>15.774101992858601</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>14</v>
       </c>
@@ -7108,7 +7115,7 @@
         <v>78.870509964293305</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>14</v>
       </c>
@@ -7137,7 +7144,7 @@
         <v>71.443525498214598</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -7166,7 +7173,7 @@
         <v>-25.052339243751302</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -7195,7 +7202,7 @@
         <v>47.322305978575997</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -7224,7 +7231,7 @@
         <v>-38.044068727683303</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -7253,7 +7260,7 @@
         <v>17.630848109378299</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -7282,7 +7289,7 @@
         <v>-0.92562639240699696</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>14</v>
       </c>
@@ -7311,7 +7318,7 @@
         <v>-8.3526108584856704</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>14</v>
       </c>
@@ -7340,7 +7347,7 @@
         <v>-75.157017731254001</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -7369,7 +7376,7 @@
         <v>73.300271614734299</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -7398,7 +7405,7 @@
         <v>65.8787804803613</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -7427,7 +7434,7 @@
         <v>0.92562639240698197</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>14</v>
       </c>
@@ -7456,7 +7463,7 @@
         <v>-58.457289345988301</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>14</v>
       </c>
@@ -7485,7 +7492,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>14</v>
       </c>
@@ -7514,7 +7521,7 @@
         <v>78.870509964293305</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -7543,7 +7550,7 @@
         <v>-78.870509964293305</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -7572,7 +7579,7 @@
         <v>39.900814844202998</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>14</v>
       </c>
@@ -7601,7 +7608,7 @@
         <v>-58.457289345988301</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>14</v>
       </c>
@@ -7630,7 +7637,7 @@
         <v>0.92562639240698197</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>14</v>
       </c>
@@ -7659,7 +7666,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>14</v>
       </c>
@@ -7688,7 +7695,7 @@
         <v>45.465559862056303</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>14</v>
       </c>
@@ -7717,7 +7724,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -7746,7 +7753,7 @@
         <v>30.6170842616046</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -7775,7 +7782,7 @@
         <v>-13.917355876339</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>14</v>
       </c>
@@ -7804,7 +7811,7 @@
         <v>-49.179052095095599</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -7833,7 +7840,7 @@
         <v>-26.909085360271</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>14</v>
       </c>
@@ -7862,7 +7869,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>14</v>
       </c>
@@ -7891,7 +7898,7 @@
         <v>45.465559862056303</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -7920,7 +7927,7 @@
         <v>2.7823725089266702</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>14</v>
       </c>
@@ -7949,7 +7956,7 @@
         <v>-13.917355876339</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -7978,7 +7985,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -8007,7 +8014,7 @@
         <v>28.765831476790598</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>14</v>
       </c>
@@ -8036,7 +8043,7 @@
         <v>71.443525498214598</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>14</v>
       </c>
@@ -8065,7 +8072,7 @@
         <v>39.900814844202998</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>14</v>
       </c>
@@ -8094,7 +8101,7 @@
         <v>-26.909085360271</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>14</v>
       </c>
@@ -8123,7 +8130,7 @@
         <v>-8.3526108584856704</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -8152,7 +8159,7 @@
         <v>10.2038636432996</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>14</v>
       </c>
@@ -8181,7 +8188,7 @@
         <v>-26.909085360271</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>14</v>
       </c>
@@ -8210,7 +8217,7 @@
         <v>47.322305978575997</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -8239,7 +8246,7 @@
         <v>-2.7823725089266702</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>14</v>
       </c>
@@ -8268,7 +8275,7 @@
         <v>58.457289345988301</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>14</v>
       </c>
@@ -8297,7 +8304,7 @@
         <v>-2.7823725089266702</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -8326,7 +8333,7 @@
         <v>80.721762749107299</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -8355,7 +8362,7 @@
         <v>-71.443525498214598</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -8384,7 +8391,7 @@
         <v>0.92562639240698197</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>14</v>
       </c>
@@ -8413,7 +8420,7 @@
         <v>-43.608813745536601</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>14</v>
       </c>
@@ -8442,7 +8449,7 @@
         <v>-30.6170842616046</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>14</v>
       </c>
@@ -8471,7 +8478,7 @@
         <v>82.578508865626901</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>14</v>
       </c>
@@ -8500,7 +8507,7 @@
         <v>30.6170842616046</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>14</v>
       </c>
@@ -8529,7 +8536,7 @@
         <v>21.338847010711898</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -8558,7 +8565,7 @@
         <v>-65.8787804803613</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -8587,7 +8594,7 @@
         <v>75.157017731254001</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -8616,7 +8623,7 @@
         <v>-32.473830378124298</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -8645,7 +8652,7 @@
         <v>2.7823725089266702</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -8674,7 +8681,7 @@
         <v>-67.735526596881002</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>14</v>
       </c>
@@ -8703,7 +8710,7 @@
         <v>34.330576494643999</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -8732,7 +8739,7 @@
         <v>2.7823725089266702</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -8761,7 +8768,7 @@
         <v>-82.578508865627001</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -8790,7 +8797,7 @@
         <v>43.608813745536601</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>14</v>
       </c>
@@ -8819,7 +8826,7 @@
         <v>62.165288247321897</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -8848,7 +8855,7 @@
         <v>-10.2038636432996</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -8877,7 +8884,7 @@
         <v>-10.2038636432996</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -8906,7 +8913,7 @@
         <v>84.435254982146603</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -8935,7 +8942,7 @@
         <v>10.2038636432996</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>15</v>
       </c>
@@ -8964,7 +8971,7 @@
         <v>-10.2038636432996</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>15</v>
       </c>
@@ -8993,7 +9000,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -9022,7 +9029,7 @@
         <v>26.9090853602709</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -9051,7 +9058,7 @@
         <v>-17.630848109378299</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -9080,7 +9087,7 @@
         <v>-75.157017731254001</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -9109,7 +9116,7 @@
         <v>86.292001098666304</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -9138,7 +9145,7 @@
         <v>-88.148747215186006</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -9167,7 +9174,7 @@
         <v>-47.322305978575997</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -9196,7 +9203,7 @@
         <v>56.600543229468599</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>15</v>
       </c>
@@ -9225,7 +9232,7 @@
         <v>-6.4958647419659998</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -9254,7 +9261,7 @@
         <v>82.578508865626901</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>15</v>
       </c>
@@ -9283,7 +9290,7 @@
         <v>-6.4958647419659998</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>15</v>
       </c>
@@ -9312,7 +9319,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>15</v>
       </c>
@@ -9341,7 +9348,7 @@
         <v>65.8787804803613</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -9370,7 +9377,7 @@
         <v>-34.330576494643999</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -9399,7 +9406,7 @@
         <v>-36.187322611163601</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -9428,7 +9435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -9457,7 +9464,7 @@
         <v>36.187322611163601</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -9486,7 +9493,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>15</v>
       </c>
@@ -9515,7 +9522,7 @@
         <v>15.774101992858601</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -9544,7 +9551,7 @@
         <v>-19.487594225898</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>15</v>
       </c>
@@ -9573,7 +9580,7 @@
         <v>-49.179052095095599</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>15</v>
       </c>
@@ -9602,7 +9609,7 @@
         <v>-86.292001098666304</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>15</v>
       </c>
@@ -9631,7 +9638,7 @@
         <v>4.6391186254463399</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>15</v>
       </c>
@@ -9660,7 +9667,7 @@
         <v>-13.917355876339</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>15</v>
       </c>
@@ -9689,7 +9696,7 @@
         <v>8.3526108584856704</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>15</v>
       </c>
@@ -9718,7 +9725,7 @@
         <v>38.044068727683303</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>15</v>
       </c>
@@ -9747,7 +9754,7 @@
         <v>-17.630848109378299</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>15</v>
       </c>
@@ -9776,7 +9783,7 @@
         <v>-12.0606097598193</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>15</v>
       </c>
@@ -9805,7 +9812,7 @@
         <v>-28.765831476790598</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>15</v>
       </c>
@@ -9834,7 +9841,7 @@
         <v>69.592272713400604</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>15</v>
       </c>
@@ -9863,7 +9870,7 @@
         <v>82.578508865626901</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>15</v>
       </c>
@@ -9892,7 +9899,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>15</v>
       </c>
@@ -9921,7 +9928,7 @@
         <v>86.292001098666304</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>15</v>
       </c>
@@ -9950,7 +9957,7 @@
         <v>-36.187322611163601</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -9979,7 +9986,7 @@
         <v>10.2038636432996</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>15</v>
       </c>
@@ -10008,7 +10015,7 @@
         <v>-51.0303048799096</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>15</v>
       </c>
@@ -10037,7 +10044,7 @@
         <v>52.887050996429302</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -10066,7 +10073,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -10095,7 +10102,7 @@
         <v>-25.052339243751302</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>15</v>
       </c>
@@ -10124,7 +10131,7 @@
         <v>-12.0606097598193</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -10153,7 +10160,7 @@
         <v>71.443525498214598</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>15</v>
       </c>
@@ -10182,7 +10189,7 @@
         <v>2.7823725089266702</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>15</v>
       </c>
@@ -10211,7 +10218,7 @@
         <v>47.322305978575997</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -10240,7 +10247,7 @@
         <v>-6.4958647419659998</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -10269,7 +10276,7 @@
         <v>-21.338847010712001</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>15</v>
       </c>
@@ -10298,7 +10305,7 @@
         <v>8.3526108584856704</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>15</v>
       </c>
@@ -10327,7 +10334,7 @@
         <v>-21.338847010712001</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -10356,7 +10363,7 @@
         <v>71.443525498214598</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>15</v>
       </c>
@@ -10385,7 +10392,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>15</v>
       </c>
@@ -10414,7 +10421,7 @@
         <v>-82.578508865627001</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -10443,7 +10450,7 @@
         <v>17.630848109378299</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -10472,7 +10479,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>15</v>
       </c>
@@ -10501,7 +10508,7 @@
         <v>-10.2038636432996</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>15</v>
       </c>
@@ -10530,7 +10537,7 @@
         <v>88.148747215186006</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>15</v>
       </c>
@@ -10559,7 +10566,7 @@
         <v>73.300271614734299</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>15</v>
       </c>
@@ -10588,7 +10595,7 @@
         <v>-13.917355876339</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>15</v>
       </c>
@@ -10617,7 +10624,7 @@
         <v>-13.917355876339</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>15</v>
       </c>
@@ -10646,7 +10653,7 @@
         <v>10.2038636432996</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>15</v>
       </c>
@@ -10675,7 +10682,7 @@
         <v>-36.187322611163601</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>15</v>
       </c>
@@ -10704,7 +10711,7 @@
         <v>-82.578508865627001</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>15</v>
       </c>
@@ -10733,7 +10740,7 @@
         <v>49.179052095095599</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>15</v>
       </c>
@@ -10762,7 +10769,7 @@
         <v>13.917355876339</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>15</v>
       </c>
@@ -10791,7 +10798,7 @@
         <v>-86.292001098666304</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>15</v>
       </c>
@@ -10820,7 +10827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>15</v>
       </c>
@@ -10849,7 +10856,7 @@
         <v>-19.487594225898</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>15</v>
       </c>
@@ -10878,7 +10885,7 @@
         <v>41.752067629016899</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>15</v>
       </c>
@@ -10907,7 +10914,7 @@
         <v>38.044068727683303</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>15</v>
       </c>
@@ -10936,7 +10943,7 @@
         <v>-38.044068727683303</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>16</v>
       </c>
@@ -10965,7 +10972,7 @@
         <v>84.435254982146603</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>16</v>
       </c>
@@ -10994,7 +11001,7 @@
         <v>-71.443525498214598</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>16</v>
       </c>
@@ -11023,7 +11030,7 @@
         <v>75.157017731254001</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>16</v>
       </c>
@@ -11052,7 +11059,7 @@
         <v>-73.300271614734299</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>16</v>
       </c>
@@ -11081,7 +11088,7 @@
         <v>82.578508865626901</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>16</v>
       </c>
@@ -11110,7 +11117,7 @@
         <v>-82.578508865627001</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>16</v>
       </c>
@@ -11139,7 +11146,7 @@
         <v>84.435254982146603</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>16</v>
       </c>
@@ -11168,7 +11175,7 @@
         <v>-86.292001098666304</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>16</v>
       </c>
@@ -11197,7 +11204,7 @@
         <v>86.292001098666304</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>16</v>
       </c>
@@ -11226,7 +11233,7 @@
         <v>51.0303048799096</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>16</v>
       </c>
@@ -11255,7 +11262,7 @@
         <v>-88.148747215186006</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>16</v>
       </c>
@@ -11284,7 +11291,7 @@
         <v>-84.435254982146603</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>16</v>
       </c>
@@ -11313,7 +11320,7 @@
         <v>-82.578508865627001</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>16</v>
       </c>
@@ -11342,7 +11349,7 @@
         <v>73.300271614734299</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>16</v>
       </c>
@@ -11371,7 +11378,7 @@
         <v>78.870509964293305</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>16</v>
       </c>
@@ -11400,7 +11407,7 @@
         <v>-84.435254982146603</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>16</v>
       </c>
@@ -11429,7 +11436,7 @@
         <v>-69.592272713400604</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>16</v>
       </c>
@@ -11458,7 +11465,7 @@
         <v>82.578508865626901</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>16</v>
       </c>
@@ -11487,7 +11494,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>16</v>
       </c>
@@ -11516,7 +11523,7 @@
         <v>82.578508865626901</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>16</v>
       </c>
@@ -11545,7 +11552,7 @@
         <v>-84.435254982146603</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>16</v>
       </c>
@@ -11574,7 +11581,7 @@
         <v>-64.022034363841598</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>16</v>
       </c>
@@ -11603,7 +11610,7 @@
         <v>77.013763847773603</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>16</v>
       </c>
@@ -11632,7 +11639,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>16</v>
       </c>
@@ -11661,7 +11668,7 @@
         <v>-86.292001098666304</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>16</v>
       </c>
@@ -11690,7 +11697,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>16</v>
       </c>
@@ -11719,7 +11726,7 @@
         <v>-88.148747215186006</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>16</v>
       </c>
@@ -11748,7 +11755,7 @@
         <v>78.870509964293305</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>16</v>
       </c>
@@ -11777,7 +11784,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>16</v>
       </c>
@@ -11806,7 +11813,7 @@
         <v>-45.465559862056303</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>16</v>
       </c>
@@ -11835,7 +11842,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>16</v>
       </c>
@@ -11864,7 +11871,7 @@
         <v>84.435254982146603</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>16</v>
       </c>
@@ -11893,7 +11900,7 @@
         <v>-73.300271614734299</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>16</v>
       </c>
@@ -11922,7 +11929,7 @@
         <v>-69.592272713400604</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>16</v>
       </c>
@@ -11951,7 +11958,7 @@
         <v>84.435254982146603</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>16</v>
       </c>
@@ -11980,7 +11987,7 @@
         <v>-80.721762749107299</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>16</v>
       </c>
@@ -12009,7 +12016,7 @@
         <v>80.721762749107299</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>16</v>
       </c>
@@ -12038,7 +12045,7 @@
         <v>80.721762749107299</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>16</v>
       </c>
@@ -12067,7 +12074,7 @@
         <v>-88.148747215186006</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>16</v>
       </c>
@@ -12096,7 +12103,7 @@
         <v>-75.157017731254001</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>16</v>
       </c>
@@ -12125,7 +12132,7 @@
         <v>71.443525498214598</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>16</v>
       </c>
@@ -12154,7 +12161,7 @@
         <v>-84.435254982146603</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>16</v>
       </c>
@@ -12183,7 +12190,7 @@
         <v>78.870509964293305</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>16</v>
       </c>
@@ -12212,7 +12219,7 @@
         <v>82.578508865626901</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>16</v>
       </c>
@@ -12241,7 +12248,7 @@
         <v>75.157017731254001</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>16</v>
       </c>
@@ -12270,7 +12277,7 @@
         <v>38.044068727683303</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>16</v>
       </c>
@@ -12299,7 +12306,7 @@
         <v>-77.013763847773603</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>16</v>
       </c>
@@ -12328,7 +12335,7 @@
         <v>77.013763847773603</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>16</v>
       </c>
@@ -12357,7 +12364,7 @@
         <v>80.721762749107299</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>16</v>
       </c>
@@ -12386,7 +12393,7 @@
         <v>-84.435254982146603</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>16</v>
       </c>
@@ -12415,7 +12422,7 @@
         <v>69.592272713400604</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>16</v>
       </c>
@@ -12444,7 +12451,7 @@
         <v>78.870509964293305</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>16</v>
       </c>
@@ -12473,7 +12480,7 @@
         <v>80.721762749107299</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>16</v>
       </c>
@@ -12502,7 +12509,7 @@
         <v>-78.870509964293305</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>16</v>
       </c>
@@ -12531,7 +12538,7 @@
         <v>-65.8787804803613</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>16</v>
       </c>
@@ -12560,7 +12567,7 @@
         <v>-80.721762749107299</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>16</v>
       </c>
@@ -12589,7 +12596,7 @@
         <v>-82.578508865627001</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>16</v>
       </c>
@@ -12618,7 +12625,7 @@
         <v>41.752067629016899</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>16</v>
       </c>
@@ -12647,7 +12654,7 @@
         <v>82.578508865626901</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>16</v>
       </c>
@@ -12676,7 +12683,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>16</v>
       </c>
@@ -12705,7 +12712,7 @@
         <v>49.179052095095599</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>16</v>
       </c>
@@ -12734,7 +12741,7 @@
         <v>51.0303048799096</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>16</v>
       </c>
@@ -12763,7 +12770,7 @@
         <v>86.292001098666304</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>16</v>
       </c>
@@ -12792,7 +12799,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>16</v>
       </c>
@@ -12821,7 +12828,7 @@
         <v>-77.013763847773603</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>16</v>
       </c>
@@ -12850,7 +12857,7 @@
         <v>36.187322611163601</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>16</v>
       </c>
@@ -12879,7 +12886,7 @@
         <v>-54.743797112948997</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>16</v>
       </c>
@@ -12908,7 +12915,7 @@
         <v>32.473830378124298</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>16</v>
       </c>
@@ -12937,7 +12944,7 @@
         <v>-82.578508865627001</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>16</v>
       </c>
@@ -12966,7 +12973,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>16</v>
       </c>
@@ -12995,7 +13002,7 @@
         <v>-41.752067629016999</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>16</v>
       </c>
@@ -13023,6 +13030,2526 @@
       <c r="I433">
         <v>58.457289345988301</v>
       </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>17</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>11</v>
+      </c>
+      <c r="F434" t="s">
+        <v>10</v>
+      </c>
+      <c r="G434">
+        <v>500</v>
+      </c>
+      <c r="H434" t="s">
+        <v>11</v>
+      </c>
+      <c r="I434">
+        <v>73.300271614734299</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>17</v>
+      </c>
+      <c r="B435">
+        <v>2</v>
+      </c>
+      <c r="C435" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D435">
+        <v>2</v>
+      </c>
+      <c r="E435">
+        <v>10</v>
+      </c>
+      <c r="F435" t="s">
+        <v>10</v>
+      </c>
+      <c r="G435">
+        <v>400</v>
+      </c>
+      <c r="H435" t="s">
+        <v>11</v>
+      </c>
+      <c r="I435">
+        <v>-84.435254982146603</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>17</v>
+      </c>
+      <c r="B436">
+        <v>3</v>
+      </c>
+      <c r="C436" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D436">
+        <v>3</v>
+      </c>
+      <c r="E436">
+        <v>3</v>
+      </c>
+      <c r="F436" t="s">
+        <v>10</v>
+      </c>
+      <c r="G436">
+        <v>-400</v>
+      </c>
+      <c r="H436" t="s">
+        <v>11</v>
+      </c>
+      <c r="I436">
+        <v>-64.022034363841598</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>17</v>
+      </c>
+      <c r="B437">
+        <v>4</v>
+      </c>
+      <c r="C437" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D437">
+        <v>4</v>
+      </c>
+      <c r="E437">
+        <v>1</v>
+      </c>
+      <c r="F437" t="s">
+        <v>10</v>
+      </c>
+      <c r="G437">
+        <v>-800</v>
+      </c>
+      <c r="H437" t="s">
+        <v>11</v>
+      </c>
+      <c r="I437">
+        <v>-73.300271614734299</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>17</v>
+      </c>
+      <c r="B438">
+        <v>5</v>
+      </c>
+      <c r="C438" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D438">
+        <v>5</v>
+      </c>
+      <c r="E438">
+        <v>8</v>
+      </c>
+      <c r="F438" t="s">
+        <v>10</v>
+      </c>
+      <c r="G438">
+        <v>100</v>
+      </c>
+      <c r="H438" t="s">
+        <v>11</v>
+      </c>
+      <c r="I438">
+        <v>-43.608813745536601</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>17</v>
+      </c>
+      <c r="B439">
+        <v>6</v>
+      </c>
+      <c r="C439" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D439">
+        <v>6</v>
+      </c>
+      <c r="E439">
+        <v>2</v>
+      </c>
+      <c r="F439" t="s">
+        <v>10</v>
+      </c>
+      <c r="G439">
+        <v>-500</v>
+      </c>
+      <c r="H439" t="s">
+        <v>11</v>
+      </c>
+      <c r="I439">
+        <v>-21.338847010712001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>17</v>
+      </c>
+      <c r="B440">
+        <v>7</v>
+      </c>
+      <c r="C440" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D440">
+        <v>7</v>
+      </c>
+      <c r="E440">
+        <v>12</v>
+      </c>
+      <c r="F440" t="s">
+        <v>10</v>
+      </c>
+      <c r="G440">
+        <v>800</v>
+      </c>
+      <c r="H440" t="s">
+        <v>11</v>
+      </c>
+      <c r="I440">
+        <v>-43.608813745536601</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>17</v>
+      </c>
+      <c r="B441">
+        <v>8</v>
+      </c>
+      <c r="C441" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D441">
+        <v>8</v>
+      </c>
+      <c r="E441">
+        <v>4</v>
+      </c>
+      <c r="F441" t="s">
+        <v>10</v>
+      </c>
+      <c r="G441">
+        <v>-200</v>
+      </c>
+      <c r="H441" t="s">
+        <v>11</v>
+      </c>
+      <c r="I441">
+        <v>-28.765831476790598</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>17</v>
+      </c>
+      <c r="B442">
+        <v>9</v>
+      </c>
+      <c r="C442" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D442">
+        <v>9</v>
+      </c>
+      <c r="E442">
+        <v>6</v>
+      </c>
+      <c r="F442" t="s">
+        <v>10</v>
+      </c>
+      <c r="G442">
+        <v>-50</v>
+      </c>
+      <c r="H442" t="s">
+        <v>11</v>
+      </c>
+      <c r="I442">
+        <v>-36.187322611163601</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>17</v>
+      </c>
+      <c r="B443">
+        <v>10</v>
+      </c>
+      <c r="C443" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D443">
+        <v>10</v>
+      </c>
+      <c r="E443">
+        <v>9</v>
+      </c>
+      <c r="F443" t="s">
+        <v>10</v>
+      </c>
+      <c r="G443">
+        <v>200</v>
+      </c>
+      <c r="H443" t="s">
+        <v>11</v>
+      </c>
+      <c r="I443">
+        <v>-36.187322611163601</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>17</v>
+      </c>
+      <c r="B444">
+        <v>11</v>
+      </c>
+      <c r="C444" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D444">
+        <v>11</v>
+      </c>
+      <c r="E444">
+        <v>7</v>
+      </c>
+      <c r="F444" t="s">
+        <v>10</v>
+      </c>
+      <c r="G444">
+        <v>50</v>
+      </c>
+      <c r="H444" t="s">
+        <v>11</v>
+      </c>
+      <c r="I444">
+        <v>-38.044068727683303</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>17</v>
+      </c>
+      <c r="B445">
+        <v>12</v>
+      </c>
+      <c r="C445" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D445">
+        <v>12</v>
+      </c>
+      <c r="E445">
+        <v>5</v>
+      </c>
+      <c r="F445" t="s">
+        <v>10</v>
+      </c>
+      <c r="G445">
+        <v>-100</v>
+      </c>
+      <c r="H445" t="s">
+        <v>11</v>
+      </c>
+      <c r="I445">
+        <v>-23.1955931272316</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>17</v>
+      </c>
+      <c r="B446">
+        <v>13</v>
+      </c>
+      <c r="C446" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D446">
+        <v>13</v>
+      </c>
+      <c r="E446">
+        <v>10</v>
+      </c>
+      <c r="F446" t="s">
+        <v>10</v>
+      </c>
+      <c r="G446">
+        <v>400</v>
+      </c>
+      <c r="H446" t="s">
+        <v>11</v>
+      </c>
+      <c r="I446">
+        <v>-30.6170842616046</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>17</v>
+      </c>
+      <c r="B447">
+        <v>14</v>
+      </c>
+      <c r="C447" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D447">
+        <v>14</v>
+      </c>
+      <c r="E447">
+        <v>9</v>
+      </c>
+      <c r="F447" t="s">
+        <v>10</v>
+      </c>
+      <c r="G447">
+        <v>200</v>
+      </c>
+      <c r="H447" t="s">
+        <v>11</v>
+      </c>
+      <c r="I447">
+        <v>-28.765831476790598</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>17</v>
+      </c>
+      <c r="B448">
+        <v>15</v>
+      </c>
+      <c r="C448" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D448">
+        <v>15</v>
+      </c>
+      <c r="E448">
+        <v>1</v>
+      </c>
+      <c r="F448" t="s">
+        <v>10</v>
+      </c>
+      <c r="G448">
+        <v>-800</v>
+      </c>
+      <c r="H448" t="s">
+        <v>11</v>
+      </c>
+      <c r="I448">
+        <v>-43.608813745536601</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>17</v>
+      </c>
+      <c r="B449">
+        <v>16</v>
+      </c>
+      <c r="C449" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D449">
+        <v>16</v>
+      </c>
+      <c r="E449">
+        <v>5</v>
+      </c>
+      <c r="F449" t="s">
+        <v>10</v>
+      </c>
+      <c r="G449">
+        <v>-100</v>
+      </c>
+      <c r="H449" t="s">
+        <v>11</v>
+      </c>
+      <c r="I449">
+        <v>-30.6170842616046</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>17</v>
+      </c>
+      <c r="B450">
+        <v>17</v>
+      </c>
+      <c r="C450" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D450">
+        <v>17</v>
+      </c>
+      <c r="E450">
+        <v>7</v>
+      </c>
+      <c r="F450" t="s">
+        <v>10</v>
+      </c>
+      <c r="G450">
+        <v>50</v>
+      </c>
+      <c r="H450" t="s">
+        <v>11</v>
+      </c>
+      <c r="I450">
+        <v>-36.187322611163601</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>17</v>
+      </c>
+      <c r="B451">
+        <v>18</v>
+      </c>
+      <c r="C451" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D451">
+        <v>18</v>
+      </c>
+      <c r="E451">
+        <v>2</v>
+      </c>
+      <c r="F451" t="s">
+        <v>10</v>
+      </c>
+      <c r="G451">
+        <v>-500</v>
+      </c>
+      <c r="H451" t="s">
+        <v>11</v>
+      </c>
+      <c r="I451">
+        <v>-32.473830378124298</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>17</v>
+      </c>
+      <c r="B452">
+        <v>19</v>
+      </c>
+      <c r="C452" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D452">
+        <v>19</v>
+      </c>
+      <c r="E452">
+        <v>4</v>
+      </c>
+      <c r="F452" t="s">
+        <v>10</v>
+      </c>
+      <c r="G452">
+        <v>-200</v>
+      </c>
+      <c r="H452" t="s">
+        <v>11</v>
+      </c>
+      <c r="I452">
+        <v>-26.909085360271</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>17</v>
+      </c>
+      <c r="B453">
+        <v>20</v>
+      </c>
+      <c r="C453" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D453">
+        <v>20</v>
+      </c>
+      <c r="E453">
+        <v>3</v>
+      </c>
+      <c r="F453" t="s">
+        <v>10</v>
+      </c>
+      <c r="G453">
+        <v>-400</v>
+      </c>
+      <c r="H453" t="s">
+        <v>11</v>
+      </c>
+      <c r="I453">
+        <v>-23.1955931272316</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>17</v>
+      </c>
+      <c r="B454">
+        <v>21</v>
+      </c>
+      <c r="C454" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D454">
+        <v>21</v>
+      </c>
+      <c r="E454">
+        <v>6</v>
+      </c>
+      <c r="F454" t="s">
+        <v>10</v>
+      </c>
+      <c r="G454">
+        <v>-50</v>
+      </c>
+      <c r="H454" t="s">
+        <v>11</v>
+      </c>
+      <c r="I454">
+        <v>-15.774101992858601</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>17</v>
+      </c>
+      <c r="B455">
+        <v>22</v>
+      </c>
+      <c r="C455" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D455">
+        <v>22</v>
+      </c>
+      <c r="E455">
+        <v>11</v>
+      </c>
+      <c r="F455" t="s">
+        <v>10</v>
+      </c>
+      <c r="G455">
+        <v>500</v>
+      </c>
+      <c r="H455" t="s">
+        <v>11</v>
+      </c>
+      <c r="I455">
+        <v>-41.752067629016999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>17</v>
+      </c>
+      <c r="B456">
+        <v>23</v>
+      </c>
+      <c r="C456" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D456">
+        <v>23</v>
+      </c>
+      <c r="E456">
+        <v>8</v>
+      </c>
+      <c r="F456" t="s">
+        <v>10</v>
+      </c>
+      <c r="G456">
+        <v>100</v>
+      </c>
+      <c r="H456" t="s">
+        <v>11</v>
+      </c>
+      <c r="I456">
+        <v>-80.721762749107299</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>17</v>
+      </c>
+      <c r="B457">
+        <v>24</v>
+      </c>
+      <c r="C457" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D457">
+        <v>24</v>
+      </c>
+      <c r="E457">
+        <v>12</v>
+      </c>
+      <c r="F457" t="s">
+        <v>10</v>
+      </c>
+      <c r="G457">
+        <v>800</v>
+      </c>
+      <c r="H457" t="s">
+        <v>11</v>
+      </c>
+      <c r="I457">
+        <v>-64.022034363841598</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>17</v>
+      </c>
+      <c r="B458">
+        <v>25</v>
+      </c>
+      <c r="C458" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D458">
+        <v>25</v>
+      </c>
+      <c r="E458">
+        <v>4</v>
+      </c>
+      <c r="F458" t="s">
+        <v>10</v>
+      </c>
+      <c r="G458">
+        <v>-200</v>
+      </c>
+      <c r="H458" t="s">
+        <v>11</v>
+      </c>
+      <c r="I458">
+        <v>-71.443525498214598</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>17</v>
+      </c>
+      <c r="B459">
+        <v>26</v>
+      </c>
+      <c r="C459" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D459">
+        <v>26</v>
+      </c>
+      <c r="E459">
+        <v>9</v>
+      </c>
+      <c r="F459" t="s">
+        <v>10</v>
+      </c>
+      <c r="G459">
+        <v>200</v>
+      </c>
+      <c r="H459" t="s">
+        <v>11</v>
+      </c>
+      <c r="I459">
+        <v>-58.457289345988301</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>17</v>
+      </c>
+      <c r="B460">
+        <v>27</v>
+      </c>
+      <c r="C460" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D460">
+        <v>27</v>
+      </c>
+      <c r="E460">
+        <v>8</v>
+      </c>
+      <c r="F460" t="s">
+        <v>10</v>
+      </c>
+      <c r="G460">
+        <v>100</v>
+      </c>
+      <c r="H460" t="s">
+        <v>11</v>
+      </c>
+      <c r="I460">
+        <v>-52.887050996429302</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>17</v>
+      </c>
+      <c r="B461">
+        <v>28</v>
+      </c>
+      <c r="C461" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D461">
+        <v>28</v>
+      </c>
+      <c r="E461">
+        <v>11</v>
+      </c>
+      <c r="F461" t="s">
+        <v>10</v>
+      </c>
+      <c r="G461">
+        <v>500</v>
+      </c>
+      <c r="H461" t="s">
+        <v>11</v>
+      </c>
+      <c r="I461">
+        <v>28.765831476790598</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>17</v>
+      </c>
+      <c r="B462">
+        <v>29</v>
+      </c>
+      <c r="C462" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D462">
+        <v>29</v>
+      </c>
+      <c r="E462">
+        <v>6</v>
+      </c>
+      <c r="F462" t="s">
+        <v>10</v>
+      </c>
+      <c r="G462">
+        <v>-50</v>
+      </c>
+      <c r="H462" t="s">
+        <v>11</v>
+      </c>
+      <c r="I462">
+        <v>45.465559862056303</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>17</v>
+      </c>
+      <c r="B463">
+        <v>30</v>
+      </c>
+      <c r="C463" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D463">
+        <v>30</v>
+      </c>
+      <c r="E463">
+        <v>7</v>
+      </c>
+      <c r="F463" t="s">
+        <v>10</v>
+      </c>
+      <c r="G463">
+        <v>50</v>
+      </c>
+      <c r="H463" t="s">
+        <v>11</v>
+      </c>
+      <c r="I463">
+        <v>26.9090853602709</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>17</v>
+      </c>
+      <c r="B464">
+        <v>31</v>
+      </c>
+      <c r="C464" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D464">
+        <v>31</v>
+      </c>
+      <c r="E464">
+        <v>12</v>
+      </c>
+      <c r="F464" t="s">
+        <v>10</v>
+      </c>
+      <c r="G464">
+        <v>800</v>
+      </c>
+      <c r="H464" t="s">
+        <v>11</v>
+      </c>
+      <c r="I464">
+        <v>-56.600543229468599</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>17</v>
+      </c>
+      <c r="B465">
+        <v>32</v>
+      </c>
+      <c r="C465" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D465">
+        <v>32</v>
+      </c>
+      <c r="E465">
+        <v>1</v>
+      </c>
+      <c r="F465" t="s">
+        <v>10</v>
+      </c>
+      <c r="G465">
+        <v>-800</v>
+      </c>
+      <c r="H465" t="s">
+        <v>11</v>
+      </c>
+      <c r="I465">
+        <v>-58.457289345988301</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>17</v>
+      </c>
+      <c r="B466">
+        <v>33</v>
+      </c>
+      <c r="C466" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D466">
+        <v>33</v>
+      </c>
+      <c r="E466">
+        <v>2</v>
+      </c>
+      <c r="F466" t="s">
+        <v>10</v>
+      </c>
+      <c r="G466">
+        <v>-500</v>
+      </c>
+      <c r="H466" t="s">
+        <v>11</v>
+      </c>
+      <c r="I466">
+        <v>-34.330576494643999</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>17</v>
+      </c>
+      <c r="B467">
+        <v>34</v>
+      </c>
+      <c r="C467" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D467">
+        <v>34</v>
+      </c>
+      <c r="E467">
+        <v>10</v>
+      </c>
+      <c r="F467" t="s">
+        <v>10</v>
+      </c>
+      <c r="G467">
+        <v>400</v>
+      </c>
+      <c r="H467" t="s">
+        <v>11</v>
+      </c>
+      <c r="I467">
+        <v>-28.765831476790598</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>17</v>
+      </c>
+      <c r="B468">
+        <v>35</v>
+      </c>
+      <c r="C468" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D468">
+        <v>35</v>
+      </c>
+      <c r="E468">
+        <v>5</v>
+      </c>
+      <c r="F468" t="s">
+        <v>10</v>
+      </c>
+      <c r="G468">
+        <v>-100</v>
+      </c>
+      <c r="H468" t="s">
+        <v>11</v>
+      </c>
+      <c r="I468">
+        <v>-65.8787804803613</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>17</v>
+      </c>
+      <c r="B469">
+        <v>36</v>
+      </c>
+      <c r="C469" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D469">
+        <v>36</v>
+      </c>
+      <c r="E469">
+        <v>3</v>
+      </c>
+      <c r="F469" t="s">
+        <v>10</v>
+      </c>
+      <c r="G469">
+        <v>-400</v>
+      </c>
+      <c r="H469" t="s">
+        <v>11</v>
+      </c>
+      <c r="I469">
+        <v>-71.443525498214598</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>17</v>
+      </c>
+      <c r="B470">
+        <v>37</v>
+      </c>
+      <c r="C470" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D470">
+        <v>37</v>
+      </c>
+      <c r="E470">
+        <v>2</v>
+      </c>
+      <c r="F470" t="s">
+        <v>10</v>
+      </c>
+      <c r="G470">
+        <v>-500</v>
+      </c>
+      <c r="H470" t="s">
+        <v>11</v>
+      </c>
+      <c r="I470">
+        <v>-56.600543229468599</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>17</v>
+      </c>
+      <c r="B471">
+        <v>38</v>
+      </c>
+      <c r="C471" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D471">
+        <v>38</v>
+      </c>
+      <c r="E471">
+        <v>6</v>
+      </c>
+      <c r="F471" t="s">
+        <v>10</v>
+      </c>
+      <c r="G471">
+        <v>-50</v>
+      </c>
+      <c r="H471" t="s">
+        <v>11</v>
+      </c>
+      <c r="I471">
+        <v>-77.013763847773603</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>17</v>
+      </c>
+      <c r="B472">
+        <v>39</v>
+      </c>
+      <c r="C472" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D472">
+        <v>39</v>
+      </c>
+      <c r="E472">
+        <v>7</v>
+      </c>
+      <c r="F472" t="s">
+        <v>10</v>
+      </c>
+      <c r="G472">
+        <v>50</v>
+      </c>
+      <c r="H472" t="s">
+        <v>11</v>
+      </c>
+      <c r="I472">
+        <v>-60.308542130802302</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>17</v>
+      </c>
+      <c r="B473">
+        <v>40</v>
+      </c>
+      <c r="C473" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D473">
+        <v>40</v>
+      </c>
+      <c r="E473">
+        <v>3</v>
+      </c>
+      <c r="F473" t="s">
+        <v>10</v>
+      </c>
+      <c r="G473">
+        <v>-400</v>
+      </c>
+      <c r="H473" t="s">
+        <v>11</v>
+      </c>
+      <c r="I473">
+        <v>-69.592272713400604</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>17</v>
+      </c>
+      <c r="B474">
+        <v>41</v>
+      </c>
+      <c r="C474" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D474">
+        <v>41</v>
+      </c>
+      <c r="E474">
+        <v>5</v>
+      </c>
+      <c r="F474" t="s">
+        <v>10</v>
+      </c>
+      <c r="G474">
+        <v>-100</v>
+      </c>
+      <c r="H474" t="s">
+        <v>11</v>
+      </c>
+      <c r="I474">
+        <v>-38.044068727683303</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>17</v>
+      </c>
+      <c r="B475">
+        <v>42</v>
+      </c>
+      <c r="C475" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D475">
+        <v>42</v>
+      </c>
+      <c r="E475">
+        <v>9</v>
+      </c>
+      <c r="F475" t="s">
+        <v>10</v>
+      </c>
+      <c r="G475">
+        <v>200</v>
+      </c>
+      <c r="H475" t="s">
+        <v>11</v>
+      </c>
+      <c r="I475">
+        <v>-28.765831476790598</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>17</v>
+      </c>
+      <c r="B476">
+        <v>43</v>
+      </c>
+      <c r="C476" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D476">
+        <v>43</v>
+      </c>
+      <c r="E476">
+        <v>10</v>
+      </c>
+      <c r="F476" t="s">
+        <v>10</v>
+      </c>
+      <c r="G476">
+        <v>400</v>
+      </c>
+      <c r="H476" t="s">
+        <v>11</v>
+      </c>
+      <c r="I476">
+        <v>-30.6170842616046</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>17</v>
+      </c>
+      <c r="B477">
+        <v>44</v>
+      </c>
+      <c r="C477" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D477">
+        <v>44</v>
+      </c>
+      <c r="E477">
+        <v>4</v>
+      </c>
+      <c r="F477" t="s">
+        <v>10</v>
+      </c>
+      <c r="G477">
+        <v>-200</v>
+      </c>
+      <c r="H477" t="s">
+        <v>11</v>
+      </c>
+      <c r="I477">
+        <v>-28.765831476790598</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>17</v>
+      </c>
+      <c r="B478">
+        <v>45</v>
+      </c>
+      <c r="C478" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D478">
+        <v>45</v>
+      </c>
+      <c r="E478">
+        <v>1</v>
+      </c>
+      <c r="F478" t="s">
+        <v>10</v>
+      </c>
+      <c r="G478">
+        <v>-800</v>
+      </c>
+      <c r="H478" t="s">
+        <v>11</v>
+      </c>
+      <c r="I478">
+        <v>-28.765831476790598</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>17</v>
+      </c>
+      <c r="B479">
+        <v>46</v>
+      </c>
+      <c r="C479" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D479">
+        <v>46</v>
+      </c>
+      <c r="E479">
+        <v>8</v>
+      </c>
+      <c r="F479" t="s">
+        <v>10</v>
+      </c>
+      <c r="G479">
+        <v>100</v>
+      </c>
+      <c r="H479" t="s">
+        <v>11</v>
+      </c>
+      <c r="I479">
+        <v>-47.322305978575997</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>17</v>
+      </c>
+      <c r="B480">
+        <v>47</v>
+      </c>
+      <c r="C480" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D480">
+        <v>47</v>
+      </c>
+      <c r="E480">
+        <v>11</v>
+      </c>
+      <c r="F480" t="s">
+        <v>10</v>
+      </c>
+      <c r="G480">
+        <v>500</v>
+      </c>
+      <c r="H480" t="s">
+        <v>11</v>
+      </c>
+      <c r="I480">
+        <v>-47.322305978575997</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>17</v>
+      </c>
+      <c r="B481">
+        <v>48</v>
+      </c>
+      <c r="C481" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D481">
+        <v>48</v>
+      </c>
+      <c r="E481">
+        <v>12</v>
+      </c>
+      <c r="F481" t="s">
+        <v>10</v>
+      </c>
+      <c r="G481">
+        <v>800</v>
+      </c>
+      <c r="H481" t="s">
+        <v>11</v>
+      </c>
+      <c r="I481">
+        <v>-43.608813745536601</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>17</v>
+      </c>
+      <c r="B482">
+        <v>49</v>
+      </c>
+      <c r="C482" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D482">
+        <v>49</v>
+      </c>
+      <c r="E482">
+        <v>5</v>
+      </c>
+      <c r="F482" t="s">
+        <v>10</v>
+      </c>
+      <c r="G482">
+        <v>-100</v>
+      </c>
+      <c r="H482" t="s">
+        <v>11</v>
+      </c>
+      <c r="I482">
+        <v>-58.457289345988301</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>17</v>
+      </c>
+      <c r="B483">
+        <v>50</v>
+      </c>
+      <c r="C483" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D483">
+        <v>50</v>
+      </c>
+      <c r="E483">
+        <v>1</v>
+      </c>
+      <c r="F483" t="s">
+        <v>10</v>
+      </c>
+      <c r="G483">
+        <v>-800</v>
+      </c>
+      <c r="H483" t="s">
+        <v>11</v>
+      </c>
+      <c r="I483">
+        <v>-62.165288247322003</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>17</v>
+      </c>
+      <c r="B484">
+        <v>51</v>
+      </c>
+      <c r="C484" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D484">
+        <v>51</v>
+      </c>
+      <c r="E484">
+        <v>4</v>
+      </c>
+      <c r="F484" t="s">
+        <v>10</v>
+      </c>
+      <c r="G484">
+        <v>-200</v>
+      </c>
+      <c r="H484" t="s">
+        <v>11</v>
+      </c>
+      <c r="I484">
+        <v>-49.179052095095599</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>17</v>
+      </c>
+      <c r="B485">
+        <v>52</v>
+      </c>
+      <c r="C485" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D485">
+        <v>52</v>
+      </c>
+      <c r="E485">
+        <v>11</v>
+      </c>
+      <c r="F485" t="s">
+        <v>10</v>
+      </c>
+      <c r="G485">
+        <v>500</v>
+      </c>
+      <c r="H485" t="s">
+        <v>11</v>
+      </c>
+      <c r="I485">
+        <v>-36.187322611163601</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>17</v>
+      </c>
+      <c r="B486">
+        <v>53</v>
+      </c>
+      <c r="C486" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D486">
+        <v>53</v>
+      </c>
+      <c r="E486">
+        <v>10</v>
+      </c>
+      <c r="F486" t="s">
+        <v>10</v>
+      </c>
+      <c r="G486">
+        <v>400</v>
+      </c>
+      <c r="H486" t="s">
+        <v>11</v>
+      </c>
+      <c r="I486">
+        <v>-65.8787804803613</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>17</v>
+      </c>
+      <c r="B487">
+        <v>54</v>
+      </c>
+      <c r="C487" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D487">
+        <v>54</v>
+      </c>
+      <c r="E487">
+        <v>2</v>
+      </c>
+      <c r="F487" t="s">
+        <v>10</v>
+      </c>
+      <c r="G487">
+        <v>-500</v>
+      </c>
+      <c r="H487" t="s">
+        <v>11</v>
+      </c>
+      <c r="I487">
+        <v>-60.308542130802302</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>17</v>
+      </c>
+      <c r="B488">
+        <v>55</v>
+      </c>
+      <c r="C488" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D488">
+        <v>55</v>
+      </c>
+      <c r="E488">
+        <v>6</v>
+      </c>
+      <c r="F488" t="s">
+        <v>10</v>
+      </c>
+      <c r="G488">
+        <v>-50</v>
+      </c>
+      <c r="H488" t="s">
+        <v>11</v>
+      </c>
+      <c r="I488">
+        <v>-82.578508865627001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>17</v>
+      </c>
+      <c r="B489">
+        <v>56</v>
+      </c>
+      <c r="C489" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D489">
+        <v>56</v>
+      </c>
+      <c r="E489">
+        <v>7</v>
+      </c>
+      <c r="F489" t="s">
+        <v>10</v>
+      </c>
+      <c r="G489">
+        <v>50</v>
+      </c>
+      <c r="H489" t="s">
+        <v>11</v>
+      </c>
+      <c r="I489">
+        <v>-86.292001098666304</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>17</v>
+      </c>
+      <c r="B490">
+        <v>57</v>
+      </c>
+      <c r="C490" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D490">
+        <v>57</v>
+      </c>
+      <c r="E490">
+        <v>12</v>
+      </c>
+      <c r="F490" t="s">
+        <v>10</v>
+      </c>
+      <c r="G490">
+        <v>800</v>
+      </c>
+      <c r="H490" t="s">
+        <v>11</v>
+      </c>
+      <c r="I490">
+        <v>-65.8787804803613</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>17</v>
+      </c>
+      <c r="B491">
+        <v>58</v>
+      </c>
+      <c r="C491" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D491">
+        <v>58</v>
+      </c>
+      <c r="E491">
+        <v>3</v>
+      </c>
+      <c r="F491" t="s">
+        <v>10</v>
+      </c>
+      <c r="G491">
+        <v>-400</v>
+      </c>
+      <c r="H491" t="s">
+        <v>11</v>
+      </c>
+      <c r="I491">
+        <v>-71.443525498214598</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>17</v>
+      </c>
+      <c r="B492">
+        <v>59</v>
+      </c>
+      <c r="C492" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D492">
+        <v>59</v>
+      </c>
+      <c r="E492">
+        <v>9</v>
+      </c>
+      <c r="F492" t="s">
+        <v>10</v>
+      </c>
+      <c r="G492">
+        <v>200</v>
+      </c>
+      <c r="H492" t="s">
+        <v>11</v>
+      </c>
+      <c r="I492">
+        <v>-64.022034363841598</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>17</v>
+      </c>
+      <c r="B493">
+        <v>60</v>
+      </c>
+      <c r="C493" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D493">
+        <v>60</v>
+      </c>
+      <c r="E493">
+        <v>8</v>
+      </c>
+      <c r="F493" t="s">
+        <v>10</v>
+      </c>
+      <c r="G493">
+        <v>100</v>
+      </c>
+      <c r="H493" t="s">
+        <v>11</v>
+      </c>
+      <c r="I493">
+        <v>-64.022034363841598</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>17</v>
+      </c>
+      <c r="B494">
+        <v>61</v>
+      </c>
+      <c r="C494" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D494">
+        <v>61</v>
+      </c>
+      <c r="E494">
+        <v>2</v>
+      </c>
+      <c r="F494" t="s">
+        <v>10</v>
+      </c>
+      <c r="G494">
+        <v>-500</v>
+      </c>
+      <c r="H494" t="s">
+        <v>11</v>
+      </c>
+      <c r="I494">
+        <v>-56.600543229468599</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>17</v>
+      </c>
+      <c r="B495">
+        <v>62</v>
+      </c>
+      <c r="C495" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D495">
+        <v>62</v>
+      </c>
+      <c r="E495">
+        <v>5</v>
+      </c>
+      <c r="F495" t="s">
+        <v>10</v>
+      </c>
+      <c r="G495">
+        <v>-100</v>
+      </c>
+      <c r="H495" t="s">
+        <v>11</v>
+      </c>
+      <c r="I495">
+        <v>-67.735526596881002</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>17</v>
+      </c>
+      <c r="B496">
+        <v>63</v>
+      </c>
+      <c r="C496" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D496">
+        <v>63</v>
+      </c>
+      <c r="E496">
+        <v>7</v>
+      </c>
+      <c r="F496" t="s">
+        <v>10</v>
+      </c>
+      <c r="G496">
+        <v>50</v>
+      </c>
+      <c r="H496" t="s">
+        <v>11</v>
+      </c>
+      <c r="I496">
+        <v>-86.292001098666304</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>17</v>
+      </c>
+      <c r="B497">
+        <v>64</v>
+      </c>
+      <c r="C497" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D497">
+        <v>64</v>
+      </c>
+      <c r="E497">
+        <v>12</v>
+      </c>
+      <c r="F497" t="s">
+        <v>10</v>
+      </c>
+      <c r="G497">
+        <v>800</v>
+      </c>
+      <c r="H497" t="s">
+        <v>11</v>
+      </c>
+      <c r="I497">
+        <v>-78.870509964293305</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>17</v>
+      </c>
+      <c r="B498">
+        <v>65</v>
+      </c>
+      <c r="C498" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D498">
+        <v>65</v>
+      </c>
+      <c r="E498">
+        <v>8</v>
+      </c>
+      <c r="F498" t="s">
+        <v>10</v>
+      </c>
+      <c r="G498">
+        <v>100</v>
+      </c>
+      <c r="H498" t="s">
+        <v>11</v>
+      </c>
+      <c r="I498">
+        <v>-69.592272713400604</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>17</v>
+      </c>
+      <c r="B499">
+        <v>66</v>
+      </c>
+      <c r="C499" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D499">
+        <v>66</v>
+      </c>
+      <c r="E499">
+        <v>3</v>
+      </c>
+      <c r="F499" t="s">
+        <v>10</v>
+      </c>
+      <c r="G499">
+        <v>-400</v>
+      </c>
+      <c r="H499" t="s">
+        <v>11</v>
+      </c>
+      <c r="I499">
+        <v>-84.435254982146603</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>17</v>
+      </c>
+      <c r="B500">
+        <v>67</v>
+      </c>
+      <c r="C500" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D500">
+        <v>67</v>
+      </c>
+      <c r="E500">
+        <v>11</v>
+      </c>
+      <c r="F500" t="s">
+        <v>10</v>
+      </c>
+      <c r="G500">
+        <v>500</v>
+      </c>
+      <c r="H500" t="s">
+        <v>11</v>
+      </c>
+      <c r="I500">
+        <v>-65.8787804803613</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>17</v>
+      </c>
+      <c r="B501">
+        <v>68</v>
+      </c>
+      <c r="C501" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D501">
+        <v>68</v>
+      </c>
+      <c r="E501">
+        <v>6</v>
+      </c>
+      <c r="F501" t="s">
+        <v>10</v>
+      </c>
+      <c r="G501">
+        <v>-50</v>
+      </c>
+      <c r="H501" t="s">
+        <v>11</v>
+      </c>
+      <c r="I501">
+        <v>-60.308542130802302</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>17</v>
+      </c>
+      <c r="B502">
+        <v>69</v>
+      </c>
+      <c r="C502" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D502">
+        <v>69</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="F502" t="s">
+        <v>10</v>
+      </c>
+      <c r="G502">
+        <v>-800</v>
+      </c>
+      <c r="H502" t="s">
+        <v>11</v>
+      </c>
+      <c r="I502">
+        <v>-67.735526596881002</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>17</v>
+      </c>
+      <c r="B503">
+        <v>70</v>
+      </c>
+      <c r="C503" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D503">
+        <v>70</v>
+      </c>
+      <c r="E503">
+        <v>9</v>
+      </c>
+      <c r="F503" t="s">
+        <v>10</v>
+      </c>
+      <c r="G503">
+        <v>200</v>
+      </c>
+      <c r="H503" t="s">
+        <v>11</v>
+      </c>
+      <c r="I503">
+        <v>-77.013763847773603</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>17</v>
+      </c>
+      <c r="B504">
+        <v>71</v>
+      </c>
+      <c r="C504" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D504">
+        <v>71</v>
+      </c>
+      <c r="E504">
+        <v>10</v>
+      </c>
+      <c r="F504" t="s">
+        <v>10</v>
+      </c>
+      <c r="G504">
+        <v>400</v>
+      </c>
+      <c r="H504" t="s">
+        <v>11</v>
+      </c>
+      <c r="I504">
+        <v>-73.300271614734299</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>17</v>
+      </c>
+      <c r="B505">
+        <v>72</v>
+      </c>
+      <c r="C505" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D505">
+        <v>72</v>
+      </c>
+      <c r="E505">
+        <v>4</v>
+      </c>
+      <c r="F505" t="s">
+        <v>10</v>
+      </c>
+      <c r="G505">
+        <v>-200</v>
+      </c>
+      <c r="H505" t="s">
+        <v>11</v>
+      </c>
+      <c r="I505">
+        <v>-69.592272713400604</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C506" s="1"/>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C507" s="1"/>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C508" s="1"/>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C509" s="1"/>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C510" s="1"/>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C511" s="1"/>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C512" s="1"/>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C513" s="1"/>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C514" s="1"/>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C515" s="1"/>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C516" s="1"/>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C517" s="1"/>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C518" s="1"/>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C519" s="1"/>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C520" s="1"/>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C521" s="1"/>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C522" s="1"/>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C523" s="1"/>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C524" s="1"/>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C525" s="1"/>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C526" s="1"/>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C527" s="1"/>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C528" s="1"/>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C529" s="1"/>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C530" s="1"/>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C531" s="1"/>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C532" s="1"/>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C533" s="1"/>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C534" s="1"/>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C535" s="1"/>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C536" s="1"/>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C537" s="1"/>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C538" s="1"/>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C539" s="1"/>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C540" s="1"/>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C541" s="1"/>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C542" s="1"/>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C543" s="1"/>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C544" s="1"/>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C545" s="1"/>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C546" s="1"/>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C547" s="1"/>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C548" s="1"/>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C549" s="1"/>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C550" s="1"/>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C551" s="1"/>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C552" s="1"/>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C553" s="1"/>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C554" s="1"/>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C555" s="1"/>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C556" s="1"/>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C557" s="1"/>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C558" s="1"/>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C559" s="1"/>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C560" s="1"/>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C561" s="1"/>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C562" s="1"/>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C563" s="1"/>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C564" s="1"/>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C565" s="1"/>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C566" s="1"/>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C567" s="1"/>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C568" s="1"/>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C569" s="1"/>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C570" s="1"/>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C571" s="1"/>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C572" s="1"/>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C573" s="1"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C574" s="1"/>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C575" s="1"/>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C576" s="1"/>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C577" s="1"/>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C578" s="1"/>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C579" s="1"/>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C580" s="1"/>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C581" s="1"/>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C582" s="1"/>
+    </row>
+    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C583" s="1"/>
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C584" s="1"/>
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C585" s="1"/>
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C586" s="1"/>
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C587" s="1"/>
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C588" s="1"/>
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C589" s="1"/>
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C590" s="1"/>
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C591" s="1"/>
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C592" s="1"/>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C593" s="1"/>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C594" s="1"/>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C595" s="1"/>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C596" s="1"/>
+    </row>
+    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C597" s="1"/>
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C598" s="1"/>
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C599" s="1"/>
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C600" s="1"/>
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C601" s="1"/>
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C602" s="1"/>
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C603" s="1"/>
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C604" s="1"/>
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C605" s="1"/>
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C606" s="1"/>
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C607" s="1"/>
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C608" s="1"/>
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C609" s="1"/>
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C610" s="1"/>
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C611" s="1"/>
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C612" s="1"/>
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C613" s="1"/>
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C614" s="1"/>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C615" s="1"/>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C616" s="1"/>
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C617" s="1"/>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618" s="1"/>
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C619" s="1"/>
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C620" s="1"/>
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C621" s="1"/>
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C622" s="1"/>
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C623" s="1"/>
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C624" s="1"/>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C625" s="1"/>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C626" s="1"/>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C627" s="1"/>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C628" s="1"/>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C629" s="1"/>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C630" s="1"/>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C631" s="1"/>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C632" s="1"/>
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C633" s="1"/>
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C634" s="1"/>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C635" s="1"/>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C636" s="1"/>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C637" s="1"/>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C638" s="1"/>
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C639" s="1"/>
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C640" s="1"/>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C641" s="1"/>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C642" s="1"/>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C643" s="1"/>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C644" s="1"/>
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C645" s="1"/>
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C646" s="1"/>
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C647" s="1"/>
+    </row>
+    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C648" s="1"/>
+    </row>
+    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C649" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
